--- a/result/out.xlsx
+++ b/result/out.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,46 +457,46 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.812106370925903</v>
+        <v>-1.631125211715698</v>
       </c>
       <c r="B3" t="n">
-        <v>-3.169933557510376</v>
+        <v>-3.185098648071289</v>
       </c>
       <c r="C3" t="n">
-        <v>-5.489689350128174</v>
+        <v>-5.610154628753662</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.602490305900574</v>
+        <v>-1.363570928573608</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.455379724502563</v>
+        <v>-2.455223321914673</v>
       </c>
       <c r="C4" t="n">
-        <v>-5.011063575744629</v>
+        <v>-5.102594375610352</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01541322893413392</v>
+        <v>0.02338163024217793</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0006761864168915107</v>
+        <v>0.0006529822137782156</v>
       </c>
       <c r="C5" t="n">
-        <v>3.238252055521103e-06</v>
+        <v>2.453835082302022e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.02497524136989078</v>
+        <v>0.04329413543816698</v>
       </c>
       <c r="B6" t="n">
-        <v>0.003504453287935298</v>
+        <v>0.003505715574915143</v>
       </c>
       <c r="C6" t="n">
-        <v>9.748469208328092e-06</v>
+        <v>7.895972450567989e-06</v>
       </c>
     </row>
   </sheetData>
